--- a/road-mobile/src/components/html页明细表.xlsx
+++ b/road-mobile/src/components/html页明细表.xlsx
@@ -16,62 +16,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>文件名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>导航定位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>查看影像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>viewimage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>首页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>工作台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快速导航</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>quickNav</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路况监控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>histroy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -101,20 +85,20 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>查看明细</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>路况监控</t>
+      <t>监控历史</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>路况预警</t>
     </r>
     <r>
       <rPr>
@@ -122,6 +106,7 @@
         <color theme="1"/>
         <rFont val="Tahoma"/>
         <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -130,28 +115,12 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>监控历史</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roadControl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailsView</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路况预警</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次差管养单位</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -182,20 +151,48 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>次差管养单位</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>路况预警</t>
+      <t>次差路线</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccUnit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccRoad</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>roadCont</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>roadContType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>路线统计类别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>路段详情列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>roadDetailList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>养护决策</t>
     </r>
     <r>
       <rPr>
@@ -215,53 +212,9 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>次差路线</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccUnit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccRoad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路线筛查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roadFilter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路线统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roadCont</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roadContType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路线统计类别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路段详情列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roadDetailList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>养护决策</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>管养单位筛选</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -292,20 +245,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>管养单位筛选</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>养护决策</t>
+      <t>管养单位</t>
     </r>
     <r>
       <rPr>
@@ -325,7 +265,32 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>管养单位</t>
+      <t>养护详情</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>curingDetail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>filterUnit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decisions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>养护决策</t>
     </r>
     <r>
       <rPr>
@@ -345,21 +310,13 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>养护详情</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>curingDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>filterUnit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decisions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>路线</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decisionsLine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -392,23 +349,6 @@
       </rPr>
       <t>路线</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decisionsLine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>养护决策</t>
-    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -427,7 +367,28 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>路线</t>
+      <t>养护详情</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lineDetail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>filterReport</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据报表</t>
     </r>
     <r>
       <rPr>
@@ -447,13 +408,13 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>养护详情</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lineDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>筛选报表</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportDetail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -484,17 +445,9 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>检测单列表</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>report</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>filterReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>详情</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -525,24 +478,28 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>筛选报表</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reportDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据报表</t>
+      <t>明细</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportMx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkReportFilter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检测报告</t>
     </r>
     <r>
       <rPr>
@@ -562,20 +519,20 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>详情</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据报表</t>
+      <t>筛选</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检测报告</t>
     </r>
     <r>
       <rPr>
@@ -595,177 +552,241 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>明细</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reportMx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>检测报告</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>检测单列表</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+      <t>详情</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>reportXq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>location</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>desk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速导航</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>路况监控</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>roadControl</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>路线筛查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>roadFilter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckResult</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainDiseases</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chooseCheckList</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作台组件-基础信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作台组件-检测结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作台组件-主要病害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作台组件-选择检测单</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作台组件-评定结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RankResult</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>路线统计</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>养护决策</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据报表-检测单列表</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>report</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C6500"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>检测报告-检测单列表</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>checkReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>checkReportFilter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>检测报告</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>筛选</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>检测报告</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>详情</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reportXq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>location</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BaseInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作台-基础信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作台-检测结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作台-主要病害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MainDiseases</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Home</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>底部悬浮导航路由入口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图首页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/vuex/store.js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态管理器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/router/index.js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>static/js/androidviewport.js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机屏幕自适应缩放</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>static/js/public.js</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展方法集合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailsView</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>路况预警</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>warning</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>路况监控-查看明细</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由管理器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -816,8 +837,39 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -834,6 +886,17 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -844,24 +907,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -870,24 +939,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="20% - 强调文字颜色 6" xfId="4" builtinId="50"/>
+    <cellStyle name="差" xfId="3" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="2" builtinId="26"/>
     <cellStyle name="适中" xfId="1" builtinId="28"/>
@@ -1182,22 +1274,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="36.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="30.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1207,269 +1300,328 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="11" t="s">
+      <c r="D1" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="10" t="s">
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="B22" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="9" t="s">
+      <c r="B25" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="1" t="s">
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>55</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -1483,7 +1635,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1496,7 +1648,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/road-mobile/src/components/html页明细表.xlsx
+++ b/road-mobile/src/components/html页明细表.xlsx
@@ -16,142 +16,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>文件名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>功能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>导航定位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看影像</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>viewimage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>首页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>工作台</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>quickNav</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ccRoad</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>路段详情列表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>filterUnit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>decisions</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>decisionsLine</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>reportXq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>location</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>登录页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>index</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>desk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>BaseInfo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>快速导航</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>路况监控</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>路线筛查</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>CheckResult</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>MainDiseases</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>chooseCheckList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>工作台组件-基础信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>工作台组件-检测结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>工作台组件-主要病害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>工作台组件-选择检测单</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>工作台组件-评定结果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>RankResult</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>路线统计</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>养护决策</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -164,7 +148,7 @@
       </rPr>
       <t>数据报表-检测单列表</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -177,27 +161,23 @@
       </rPr>
       <t>检测报告-检测单列表</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>checkReport</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Home</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>底部悬浮导航路由入口</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图首页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>map</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -214,63 +194,63 @@
       </rPr>
       <t>文件</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>src/vuex/store.js</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>文件名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>作用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>状态管理器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>src/router/index.js</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>static/js/androidviewport.js</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>手机屏幕自适应缩放</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>static/js/public.js</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>扩展方法集合</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>detailsView</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>路况预警</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>warning</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>路况监控-查看明细</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>路由管理器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -283,27 +263,27 @@
       </rPr>
       <t>路况监控-监控历史</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>histroy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>roadControl</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>roadFilter</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>roadCont</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>report</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -316,11 +296,11 @@
       </rPr>
       <t>路况预警-次差管养单位</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ccUnit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -333,19 +313,19 @@
       </rPr>
       <t>路况预警-次差路线</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>路线统计类别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>roadContType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>roadDetailList</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -358,7 +338,7 @@
       </rPr>
       <t>养护决策-管养单位筛选</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -371,11 +351,11 @@
       </rPr>
       <t>养护决策-管养单位-养护详情</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>curingDetail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -388,11 +368,11 @@
       </rPr>
       <t>养护决策-路线</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>lineDetail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -405,7 +385,7 @@
       </rPr>
       <t>养护决策-路线-养护详情</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -418,11 +398,11 @@
       </rPr>
       <t>数据报表-筛选报表</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>filterReport</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -435,11 +415,11 @@
       </rPr>
       <t>数据报表-详情</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>reportDetail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -452,11 +432,11 @@
       </rPr>
       <t>数据报表-明细</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>reportMx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -469,11 +449,11 @@
       </rPr>
       <t>检测报告-筛选</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>checkReportFilter</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -486,20 +466,72 @@
       </rPr>
       <t>检测报告-详情</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人中心</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>userCenter</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>myCheckList</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>myReport</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的检测单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的报告</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>myplane</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的计划</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的设置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mySet</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -617,69 +649,72 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -979,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1005,320 +1040,347 @@
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="16"/>
+      <c r="D1" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
+      <c r="A2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="D5" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>25</v>
+      <c r="B12" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="9" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="7" t="s">
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="A17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>57</v>
+      <c r="A18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>63</v>
+        <v>17</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>9</v>
+        <v>47</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>67</v>
+      <c r="B24" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>70</v>
+        <v>60</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>72</v>
+        <v>29</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="5" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="5" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>77</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="5" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="5" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="5" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>14</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1326,7 +1388,7 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D1:E1"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
@@ -1340,7 +1402,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1353,7 +1415,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>